--- a/ex2/Livro1.xlsx
+++ b/ex2/Livro1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uminho365-my.sharepoint.com/personal/a93097_uminho_pt/Documents/Universidade/3_ano/RC1/ex2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7628CCC0-B671-4FC9-8AAF-0367E5F28AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{7628CCC0-B671-4FC9-8AAF-0367E5F28AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC6B60BC-0EEE-4818-A5BE-B1F587A968C9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C6601996-799F-4F91-817C-4683F473B14D}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="15570" windowHeight="9010" xr2:uid="{C6601996-799F-4F91-817C-4683F473B14D}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -34,26 +34,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>10.0.0.0/23</t>
   </si>
   <si>
-    <t>0.0xxxxxxx</t>
-  </si>
-  <si>
     <t>End de rede</t>
   </si>
   <si>
     <t>Gama de endereços válidos</t>
   </si>
   <si>
-    <t>10.0.0.0/25</t>
-  </si>
-  <si>
-    <t>10.0.0.1/25-10.0.0.126/25</t>
-  </si>
-  <si>
     <t>10.0.0000000x.xxxxxxxx</t>
   </si>
   <si>
@@ -66,18 +57,6 @@
     <t>R4 -20 pc</t>
   </si>
   <si>
-    <t>R1.1 - 126 pc</t>
-  </si>
-  <si>
-    <t>R1.2 - 126 pc</t>
-  </si>
-  <si>
-    <t>R1.3 - 48 pc</t>
-  </si>
-  <si>
-    <t>0.1xxxxxxx</t>
-  </si>
-  <si>
     <t>1.0xxxxxxx</t>
   </si>
   <si>
@@ -90,9 +69,6 @@
     <t>1.111xxxxx</t>
   </si>
   <si>
-    <t>10.0.0.128/25</t>
-  </si>
-  <si>
     <t>10.0.1.0/25</t>
   </si>
   <si>
@@ -105,12 +81,6 @@
     <t>10.0.1.224/27</t>
   </si>
   <si>
-    <t>10.0.0.129/25-10.0.254/25</t>
-  </si>
-  <si>
-    <t>10.0.1.1/25-10.0.0.127/25</t>
-  </si>
-  <si>
     <t>10.0.1.129/26-10.0.1.190/26</t>
   </si>
   <si>
@@ -118,6 +88,24 @@
   </si>
   <si>
     <t>10.0.1.225/27-10.0.1.254/27</t>
+  </si>
+  <si>
+    <t>0.xxxxxxxx</t>
+  </si>
+  <si>
+    <t>R1.2 - 48 pc</t>
+  </si>
+  <si>
+    <t>R1.1 - 252 pc</t>
+  </si>
+  <si>
+    <t>10.0.1.1/25-10.0.1.127/25</t>
+  </si>
+  <si>
+    <t>10.0.0.0/24</t>
+  </si>
+  <si>
+    <t>10.0.0.1/24-10.0.0.254/24</t>
   </si>
 </sst>
 </file>
@@ -469,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B3C50A-8242-48BD-9967-147932A6A6F1}">
-  <dimension ref="E2:H9"/>
+  <dimension ref="E2:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -490,100 +478,87 @@
     </row>
     <row r="3" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ex2/Livro1.xlsx
+++ b/ex2/Livro1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uminho365-my.sharepoint.com/personal/a93097_uminho_pt/Documents/Universidade/3_ano/RC1/ex2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{7628CCC0-B671-4FC9-8AAF-0367E5F28AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC6B60BC-0EEE-4818-A5BE-B1F587A968C9}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="8_{7628CCC0-B671-4FC9-8AAF-0367E5F28AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D1CD8EB-67E0-4DD2-BD2E-3EA6D4DB6967}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="15570" windowHeight="9010" xr2:uid="{C6601996-799F-4F91-817C-4683F473B14D}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="17510" windowHeight="9010" xr2:uid="{C6601996-799F-4F91-817C-4683F473B14D}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>10.0.0.0/23</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>End de rede</t>
   </si>
@@ -45,9 +42,6 @@
     <t>Gama de endereços válidos</t>
   </si>
   <si>
-    <t>10.0.0000000x.xxxxxxxx</t>
-  </si>
-  <si>
     <t>R2 - 100 pc</t>
   </si>
   <si>
@@ -99,13 +93,97 @@
     <t>R1.1 - 252 pc</t>
   </si>
   <si>
-    <t>10.0.1.1/25-10.0.1.127/25</t>
-  </si>
-  <si>
     <t>10.0.0.0/24</t>
   </si>
   <si>
     <t>10.0.0.1/24-10.0.0.254/24</t>
+  </si>
+  <si>
+    <t>10.0.1.1/25-10.0.1.126/25</t>
+  </si>
+  <si>
+    <t>End de difusão</t>
+  </si>
+  <si>
+    <t>10.0.1.127/25</t>
+  </si>
+  <si>
+    <t>10.0.1.191/26</t>
+  </si>
+  <si>
+    <t>10.0.1.123/27</t>
+  </si>
+  <si>
+    <t>10.0.1.255/27</t>
+  </si>
+  <si>
+    <t>10.0.0.255/24</t>
+  </si>
+  <si>
+    <t>Máscara de Rede</t>
+  </si>
+  <si>
+    <t>255.255.255.0</t>
+  </si>
+  <si>
+    <t>255.255.255.128</t>
+  </si>
+  <si>
+    <t>255.255.255.192</t>
+  </si>
+  <si>
+    <t>255.255.255.224</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>Rede de destino</t>
+  </si>
+  <si>
+    <t>Nó seguinte</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>N5</t>
+  </si>
+  <si>
+    <t>N6</t>
+  </si>
+  <si>
+    <t>N7</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>N4</t>
+  </si>
+  <si>
+    <t>R1, R2</t>
+  </si>
+  <si>
+    <t>R3, R4</t>
   </si>
 </sst>
 </file>
@@ -121,12 +199,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -141,8 +237,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,104 +566,316 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B3C50A-8242-48BD-9967-147932A6A6F1}">
-  <dimension ref="E2:H8"/>
+  <dimension ref="E3:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="11.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" customWidth="1"/>
     <col min="7" max="7" width="13.08984375" customWidth="1"/>
     <col min="8" max="8" width="25.81640625" customWidth="1"/>
+    <col min="9" max="9" width="15.08984375" customWidth="1"/>
+    <col min="10" max="10" width="16.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E2" t="s">
+    <row r="3" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E3" t="s">
+      <c r="H3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E5" t="s">
+      <c r="F7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H8" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
+      <c r="I8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E12" s="4"/>
+      <c r="F12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E13" s="4"/>
+      <c r="F13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E15" s="5"/>
+      <c r="F15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E16" s="5"/>
+      <c r="F16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="F18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="F19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="F21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="F22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="F24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="F26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="F28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
